--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -466,10 +466,6 @@
     <t>Diarrhea</t>
   </si>
   <si>
-    <t>Diarrhea
-Nasal congestion</t>
-  </si>
-  <si>
     <t>Nausea and Vomiting</t>
   </si>
   <si>
@@ -833,6 +829,9 @@
   </si>
   <si>
     <t>${contact_confirmed_case} = 'yes'</t>
+  </si>
+  <si>
+    <t>Nasal congestion</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1481,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4016,7 +4015,7 @@
         <v>127</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>132</v>
@@ -4066,7 +4065,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>133</v>
@@ -4116,7 +4115,7 @@
         <v>127</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>134</v>
@@ -4316,7 +4315,7 @@
         <v>127</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>141</v>
@@ -4366,7 +4365,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>144</v>
@@ -4416,10 +4415,10 @@
         <v>127</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>31</v>
@@ -4466,10 +4465,10 @@
         <v>127</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>31</v>
@@ -4516,10 +4515,10 @@
         <v>127</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>31</v>
@@ -4566,10 +4565,10 @@
         <v>127</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>31</v>
@@ -4616,10 +4615,10 @@
         <v>127</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>31</v>
@@ -4666,10 +4665,10 @@
         <v>127</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>31</v>
@@ -4716,7 +4715,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>142</v>
@@ -4766,7 +4765,7 @@
         <v>127</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>143</v>
@@ -4821,10 +4820,10 @@
         <v>33</v>
       </c>
       <c r="B70" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="62" t="s">
         <v>171</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>172</v>
       </c>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
@@ -4858,10 +4857,10 @@
         <v>127</v>
       </c>
       <c r="B71" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>31</v>
@@ -4869,7 +4868,7 @@
       <c r="E71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -4893,13 +4892,13 @@
     </row>
     <row r="72" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>168</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>31</v>
@@ -4907,14 +4906,14 @@
       <c r="E72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I72" s="67"/>
       <c r="J72" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K72" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="K72" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
@@ -4940,13 +4939,13 @@
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="C74" s="62" t="s">
         <v>212</v>
-      </c>
-      <c r="C74" s="62" t="s">
-        <v>213</v>
       </c>
       <c r="G74" s="63" t="s">
         <v>45</v>
@@ -4957,10 +4956,10 @@
         <v>127</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>215</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>31</v>
@@ -4968,79 +4967,79 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J76" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K76" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="K76" s="18" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="C77" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="C78" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>45</v>
@@ -5048,10 +5047,10 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B81" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>76</v>
@@ -5059,13 +5058,13 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="C82" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>31</v>
@@ -5073,48 +5072,48 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J83" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K83" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="K83" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H84" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J84" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K84" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="K84" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,16 +5121,16 @@
         <v>51</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H85" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5139,33 +5138,33 @@
         <v>51</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H86" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B87" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="72"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" s="71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>76</v>
@@ -5173,13 +5172,13 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>31</v>
@@ -5187,48 +5186,48 @@
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H90" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J90" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K90" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="K90" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H91" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J91" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K91" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="K91" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5236,16 +5235,16 @@
         <v>51</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H92" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,33 +5252,33 @@
         <v>51</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H93" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B94" s="71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94" s="72"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B95" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>76</v>
@@ -5287,13 +5286,13 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B96" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>31</v>
@@ -5301,33 +5300,33 @@
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B97" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>263</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H97" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J97" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K97" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B98" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="24" t="s">
@@ -5336,10 +5335,10 @@
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C99" s="12"/>
     </row>
@@ -5348,10 +5347,10 @@
         <v>33</v>
       </c>
       <c r="B100" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="54" t="s">
         <v>189</v>
-      </c>
-      <c r="C100" s="54" t="s">
-        <v>190</v>
       </c>
       <c r="D100" s="24"/>
       <c r="G100" s="63" t="s">
@@ -5363,90 +5362,90 @@
         <v>127</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H101" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="C102" s="57" t="s">
         <v>179</v>
-      </c>
-      <c r="C102" s="57" t="s">
-        <v>180</v>
       </c>
       <c r="D102" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H102" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="70" t="s">
         <v>196</v>
-      </c>
-      <c r="B103" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C103" s="70" t="s">
-        <v>197</v>
       </c>
       <c r="D103" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="C104" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="D104" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H104" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D105" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H105" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J105" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="K105" s="54" t="s">
         <v>236</v>
-      </c>
-      <c r="K105" s="54" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5583,157 +5582,157 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>183</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>184</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>185</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>186</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="C10" s="59" t="s">
         <v>192</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>193</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="61" t="s">
         <v>201</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>202</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>203</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>204</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>205</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>206</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="C16" s="61" t="s">
         <v>227</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>228</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>229</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>230</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>231</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>232</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -11690,14 +11689,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>173</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>174</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-31 22-12</v>
+        <v>2020-12-31 22-32</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="274">
   <si>
     <t>list_name</t>
   </si>
@@ -832,6 +832,27 @@
   </si>
   <si>
     <t>Nasal congestion</t>
+  </si>
+  <si>
+    <t>type_test</t>
+  </si>
+  <si>
+    <t>pcr</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>whole_geno</t>
+  </si>
+  <si>
+    <t>Whole genome sequencing</t>
+  </si>
+  <si>
+    <t>partial_geno</t>
+  </si>
+  <si>
+    <t>Partial genome sequencing</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1260,6 +1281,15 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,11 +1507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5470,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5700,7 +5730,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>225</v>
       </c>
@@ -5712,7 +5742,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>225</v>
       </c>
@@ -5724,7 +5754,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>225</v>
       </c>
@@ -5736,79 +5766,125 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11696,7 +11772,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-31 22-32</v>
+        <v>2021-01-01 13-49</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="277">
   <si>
     <t>list_name</t>
   </si>
@@ -853,13 +853,22 @@
   </si>
   <si>
     <t>Partial genome sequencing</t>
+  </si>
+  <si>
+    <t>yes_no_un</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -957,6 +966,12 @@
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1118,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1288,6 +1303,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5501,7 +5523,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD23"/>
+      <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5836,23 +5858,38 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -11772,7 +11809,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 13-49</v>
+        <v>2021-01-01 13-50</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 13-50</v>
+        <v>2021-01-01 14-02</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -1542,10 +1542,10 @@
   <dimension ref="A1:AN108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 21-56</v>
+        <v>2021-01-01 22-18</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="285">
   <si>
     <t>list_name</t>
   </si>
@@ -874,6 +874,18 @@
   </si>
   <si>
     <t>Expected isolation discharge date</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>floor(decimal-date-time(today())) - decimal-date-time(../home_isolation/date_isolation)</t>
+  </si>
+  <si>
+    <t>days_since_symptoms_onset</t>
+  </si>
+  <si>
+    <t>floor(decimal-date-time(today())) - decimal-date-time(../symptoms_onset/date_symptoms_onset)</t>
   </si>
 </sst>
 </file>
@@ -987,7 +999,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +1114,18 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF76A5AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1145,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1324,6 +1348,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,13 +1565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN108"/>
+  <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2074,13 +2100,13 @@
         <v>68</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4996,71 +5022,84 @@
       <c r="Z72" s="66"/>
       <c r="AA72" s="66"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+    <row r="73" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I73" s="67"/>
+      <c r="J73" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="66"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="66"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B75" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C75" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G75" s="63" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H76" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K76" s="18" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>31</v>
@@ -5068,16 +5107,22 @@
       <c r="H77" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="J77" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>31</v>
@@ -5087,74 +5132,68 @@
       </c>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B80" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="C80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B81" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G81" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71" t="s">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B82" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="H83" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="J83" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K83" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,10 +5201,10 @@
         <v>165</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>31</v>
@@ -5182,19 +5221,25 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H85" s="73" t="s">
         <v>263</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5202,10 +5247,10 @@
         <v>51</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>31</v>
@@ -5215,60 +5260,54 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B87" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="72"/>
+      <c r="A87" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="73" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="72"/>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B89" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="H90" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="J90" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K90" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5276,10 +5315,10 @@
         <v>165</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>31</v>
@@ -5296,19 +5335,25 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H92" s="73" t="s">
         <v>264</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,10 +5361,10 @@
         <v>51</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>31</v>
@@ -5329,158 +5374,158 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B94" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" s="72"/>
+      <c r="A94" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="73" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="72"/>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="B96" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="J97" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B98" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="C98" s="14"/>
+      <c r="A98" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="D98" s="24" t="s">
         <v>31</v>
       </c>
+      <c r="H98" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="54" t="s">
+      <c r="C100" s="12"/>
+    </row>
+    <row r="101" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="54" t="s">
+      <c r="B101" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C101" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="G100" s="63" t="s">
+      <c r="D101" s="24"/>
+      <c r="G101" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
+    <row r="102" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B102" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C102" s="56" t="s">
         <v>176</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="57" t="s">
-        <v>179</v>
       </c>
       <c r="D102" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H102" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="B103" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C103" s="70" t="s">
-        <v>196</v>
+      <c r="H102" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>179</v>
       </c>
       <c r="D103" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>199</v>
+      <c r="A104" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="70" t="s">
+        <v>196</v>
       </c>
       <c r="D104" s="54" t="s">
         <v>31</v>
@@ -5491,13 +5536,13 @@
     </row>
     <row r="105" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D105" s="54" t="s">
         <v>31</v>
@@ -5505,53 +5550,73 @@
       <c r="H105" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="J105" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="K105" s="54" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="106" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="G106" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H106" s="55"/>
+        <v>208</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J106" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="K106" s="54" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="107" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>50</v>
       </c>
       <c r="H107" s="55"/>
-    </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="54" t="s">
+      <c r="J107" s="54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G108" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="55"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J51:J68 D70:E72">
+    <dataValidation type="list" allowBlank="1" sqref="J51:J68 D70:E73">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11851,7 +11916,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 22-18</v>
+        <v>2021-01-01 22-38</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="286">
   <si>
     <t>list_name</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>floor(decimal-date-time(today())) - decimal-date-time(../symptoms_onset/date_symptoms_onset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal-date-time(../symptoms_onset/date_symptoms_onset) + 14 </t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1571,10 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5606,6 +5609,9 @@
         <v>50</v>
       </c>
       <c r="H108" s="55"/>
+      <c r="J108" s="54" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
@@ -11916,7 +11922,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 22-38</v>
+        <v>2021-01-01 23-01</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -905,16 +905,19 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -966,11 +969,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1571,10 +1576,10 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2135,13 +2140,13 @@
       <c r="AC11" s="38"/>
     </row>
     <row r="12" spans="1:40" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="42"/>
@@ -11922,7 +11927,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 23-01</v>
+        <v>2021-01-01 23-31</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="288">
   <si>
     <t>list_name</t>
   </si>
@@ -889,13 +889,19 @@
   </si>
   <si>
     <t xml:space="preserve">decimal-date-time(../symptoms_onset/date_symptoms_onset) + 14 </t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>field-list summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1003,6 +1009,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1177,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1358,6 +1370,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,13 +1589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5625,6 +5641,25 @@
       <c r="B109" s="54"/>
       <c r="C109" s="54"/>
     </row>
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" s="82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="82" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J51:J68 D70:E73">
@@ -11927,7 +11962,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 23-31</v>
+        <v>2021-01-01 23-55</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -1592,10 +1592,10 @@
   <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
+      <selection pane="bottomRight" activeCell="O108" sqref="O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5434,7 +5434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>240</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>165</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="71" t="s">
         <v>223</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>223</v>
       </c>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
         <v>33</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="55" t="s">
         <v>127</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
         <v>177</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="68" t="s">
         <v>195</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>197</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>165</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>84</v>
       </c>
@@ -5612,11 +5612,11 @@
         <v>50</v>
       </c>
       <c r="H107" s="55"/>
-      <c r="J107" s="54" t="s">
+      <c r="N107" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>84</v>
       </c>
@@ -5630,18 +5630,18 @@
         <v>50</v>
       </c>
       <c r="H108" s="55"/>
-      <c r="J108" s="54" t="s">
+      <c r="N108" s="54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B109" s="54"/>
       <c r="C109" s="54"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="82" t="s">
         <v>33</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-02 11-47</v>
+        <v>2021-01-02 11-55</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-02 11-55</v>
+        <v>2021-01-02 12-01</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="323">
   <si>
     <t>list_name</t>
   </si>
@@ -895,6 +895,112 @@
   </si>
   <si>
     <t>field-list summary</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>**Be sure you Submit to complete this action.**</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>r_summary</t>
+  </si>
+  <si>
+    <t>Patient Information&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
+  </si>
+  <si>
+    <t>r_patient_id</t>
+  </si>
+  <si>
+    <t>**${patient_name}**
+ID: ${r_patient_id}</t>
+  </si>
+  <si>
+    <t>h4 center</t>
+  </si>
+  <si>
+    <t>r_conditions</t>
+  </si>
+  <si>
+    <t>Underlying Conditions&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 blue</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs</t>
+  </si>
+  <si>
+    <t>**Patient Underlying Conditions**</t>
+  </si>
+  <si>
+    <t>h1 red</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs1</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs2</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs3</t>
+  </si>
+  <si>
+    <t>Cardiac conditions</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs4</t>
+  </si>
+  <si>
+    <t>Human Immuno Virus (HIV)</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs5</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs6</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs7</t>
+  </si>
+  <si>
+    <t>Tumor (without methast.)</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs8</t>
+  </si>
+  <si>
+    <t>Metabolic/Endocrine cond.</t>
+  </si>
+  <si>
+    <t>r_patient_danger_signs9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent miscarriages </t>
+  </si>
+  <si>
+    <t>r_symptoms_details</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,6 +1252,24 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor rgb="FFFFE598"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFBDD6EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1189,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1374,6 +1498,12 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1589,13 +1719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O108" sqref="O108"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5655,10 +5785,266 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="82" t="s">
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="85"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C114" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="86" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C116" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="31" t="s">
         <v>65</v>
       </c>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -11962,7 +12348,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-02 12-01</v>
+        <v>2021-01-06 13-30</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="345">
   <si>
     <t>list_name</t>
   </si>
@@ -928,79 +928,145 @@
     <t>r_conditions</t>
   </si>
   <si>
-    <t>Underlying Conditions&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>h1 blue</t>
   </si>
   <si>
-    <t>r_patient_danger_signs</t>
-  </si>
-  <si>
-    <t>**Patient Underlying Conditions**</t>
-  </si>
-  <si>
     <t>h1 red</t>
   </si>
   <si>
-    <t>r_patient_danger_signs1</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
     <t>li</t>
   </si>
   <si>
-    <t>r_patient_danger_signs2</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs3</t>
-  </si>
-  <si>
-    <t>Cardiac conditions</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs4</t>
-  </si>
-  <si>
-    <t>Human Immuno Virus (HIV)</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs5</t>
-  </si>
-  <si>
-    <t>Chronic obstructive pulmonary disease</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs6</t>
-  </si>
-  <si>
-    <t>Chronic Kidney Disease</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs7</t>
-  </si>
-  <si>
-    <t>Tumor (without methast.)</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs8</t>
-  </si>
-  <si>
-    <t>Metabolic/Endocrine cond.</t>
-  </si>
-  <si>
-    <t>r_patient_danger_signs9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent miscarriages </t>
-  </si>
-  <si>
     <t>r_symptoms_details</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms</t>
+  </si>
+  <si>
+    <t>**Patient Symptoms**</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms1</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms2</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms3</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms4</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms5</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms6</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms7</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms8</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms9</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms10</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms11</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms12</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms13</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms14</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms15</t>
+  </si>
+  <si>
+    <t>r_patient_symptoms16</t>
+  </si>
+  <si>
+    <t>COVID-19 Symptoms&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>selected${breathing} = 'yes' or selected${chest_pain} = 'yes' or selected${confusion} = 'yes' or selected${fever} = 'yes' or selected${dry_cough} = 'yes' or selected${fatigue} = 'yes' or selected${muscle_aches} = 'yes' or selected${diarrhea} = 'yes' or selected${nasal} = 'yes' or selected${nausea} = 'yes' or selected${conjunctivitis} = 'yes' or selected${headache} = 'yes' or selected${rash} = 'yes' or selected${loss_taste} = 'yes' or selected${sore_throat} = 'yes' or selected${loss_appetite} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${breathing} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${chest_pain} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${confusion} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${fever} = 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected${dry_cough} = 'yes' </t>
+  </si>
+  <si>
+    <t>selected${fatigue} = 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected${muscle_aches} = 'yes' </t>
+  </si>
+  <si>
+    <t>selected${diarrhea} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${nasal} = 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected${nausea} = 'yes' </t>
+  </si>
+  <si>
+    <t>selected${conjunctivitis} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${headache} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${rash} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${loss_taste} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${sore_throat} = 'yes'</t>
+  </si>
+  <si>
+    <t>selected${loss_appetite} = 'yes'</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>oxygen_saturation</t>
+  </si>
+  <si>
+    <t>Do you have a pulse oximeter?</t>
+  </si>
+  <si>
+    <t>pulse_oximeter</t>
+  </si>
+  <si>
+    <t>selected${pulse_oximeter} ='yes'</t>
+  </si>
+  <si>
+    <t>What is the pulse oximeter Sp02 reading?</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1504,6 +1570,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,13 +1786,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN126"/>
+  <dimension ref="A1:AN136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4174,7 +4241,7 @@
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="88"/>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
@@ -4222,7 +4289,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="88"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
@@ -4272,7 +4339,7 @@
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="88"/>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
@@ -4309,10 +4376,10 @@
         <v>127</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>31</v>
@@ -4320,9 +4387,11 @@
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>322</v>
+      </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="88"/>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
@@ -4356,13 +4425,13 @@
     </row>
     <row r="55" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>127</v>
+        <v>338</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>31</v>
@@ -4370,9 +4439,13 @@
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="H55" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
+      <c r="J55" s="88" t="s">
+        <v>344</v>
+      </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
@@ -4405,24 +4478,16 @@
       <c r="AN55" s="16"/>
     </row>
     <row r="56" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="88"/>
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
@@ -4459,10 +4524,10 @@
         <v>127</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>31</v>
@@ -4472,7 +4537,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="J57" s="88"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
@@ -4509,10 +4574,10 @@
         <v>127</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>31</v>
@@ -4522,7 +4587,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="88"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
@@ -4558,11 +4623,11 @@
       <c r="A59" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>152</v>
+      <c r="B59" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>31</v>
@@ -4572,7 +4637,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
+      <c r="J59" s="88"/>
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
@@ -4608,11 +4673,11 @@
       <c r="A60" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>153</v>
+      <c r="B60" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>31</v>
@@ -4622,7 +4687,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
+      <c r="J60" s="88"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
@@ -4658,11 +4723,11 @@
       <c r="A61" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>266</v>
+      <c r="B61" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>31</v>
@@ -4672,7 +4737,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="88"/>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
@@ -4709,10 +4774,10 @@
         <v>127</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>31</v>
@@ -4722,7 +4787,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="J62" s="88"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
@@ -4758,11 +4823,11 @@
       <c r="A63" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>156</v>
+      <c r="B63" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>31</v>
@@ -4772,7 +4837,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+      <c r="J63" s="88"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
@@ -4809,10 +4874,10 @@
         <v>127</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>31</v>
@@ -4822,7 +4887,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
+      <c r="J64" s="88"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
@@ -4859,10 +4924,10 @@
         <v>127</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>31</v>
@@ -4872,7 +4937,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
+      <c r="J65" s="88"/>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
@@ -4909,10 +4974,10 @@
         <v>127</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>31</v>
@@ -4922,7 +4987,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="J66" s="88"/>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
@@ -4958,11 +5023,11 @@
       <c r="A67" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>161</v>
+      <c r="B67" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>31</v>
@@ -4972,7 +5037,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
+      <c r="J67" s="88"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
@@ -5008,11 +5073,11 @@
       <c r="A68" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>162</v>
+      <c r="B68" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>31</v>
@@ -5022,7 +5087,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
+      <c r="J68" s="88"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
@@ -5054,374 +5119,461 @@
       <c r="AM68" s="16"/>
       <c r="AN68" s="16"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="64"/>
-      <c r="T70" s="64"/>
-      <c r="U70" s="64"/>
-      <c r="V70" s="64"/>
-      <c r="W70" s="64"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="64"/>
-      <c r="Z70" s="64"/>
-      <c r="AA70" s="64"/>
+    <row r="69" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="16"/>
+      <c r="AI69" s="16"/>
+      <c r="AJ69" s="16"/>
+      <c r="AK69" s="16"/>
+      <c r="AL69" s="16"/>
+      <c r="AM69" s="16"/>
+      <c r="AN69" s="16"/>
+    </row>
+    <row r="70" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
+      <c r="AE70" s="16"/>
+      <c r="AF70" s="16"/>
+      <c r="AG70" s="16"/>
+      <c r="AH70" s="16"/>
+      <c r="AI70" s="16"/>
+      <c r="AJ70" s="16"/>
+      <c r="AK70" s="16"/>
+      <c r="AL70" s="16"/>
+      <c r="AM70" s="16"/>
+      <c r="AN70" s="16"/>
     </row>
     <row r="71" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+    </row>
+    <row r="74" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="66"/>
-      <c r="T71" s="66"/>
-      <c r="U71" s="66"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-    </row>
-    <row r="72" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="66"/>
+    </row>
+    <row r="75" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B75" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C75" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D75" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18" t="s">
+      <c r="E75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I72" s="67"/>
-      <c r="J72" s="18" t="s">
+      <c r="I75" s="67"/>
+      <c r="J75" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="K72" s="18" t="s">
+      <c r="K75" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="66"/>
-      <c r="T72" s="66"/>
-      <c r="U72" s="66"/>
-      <c r="V72" s="66"/>
-      <c r="W72" s="66"/>
-      <c r="X72" s="66"/>
-      <c r="Y72" s="66"/>
-      <c r="Z72" s="66"/>
-      <c r="AA72" s="66"/>
-    </row>
-    <row r="73" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="80" t="s">
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="66"/>
+      <c r="W75" s="66"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="66"/>
+      <c r="Z75" s="66"/>
+      <c r="AA75" s="66"/>
+    </row>
+    <row r="76" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B76" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I73" s="67"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18" t="s">
+      <c r="I76" s="67"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="66"/>
-      <c r="T73" s="66"/>
-      <c r="U73" s="66"/>
-      <c r="V73" s="66"/>
-      <c r="W73" s="66"/>
-      <c r="X73" s="66"/>
-      <c r="Y73" s="66"/>
-      <c r="Z73" s="66"/>
-      <c r="AA73" s="66"/>
-    </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="66"/>
+      <c r="U76" s="66"/>
+      <c r="V76" s="66"/>
+      <c r="W76" s="66"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="66"/>
+      <c r="Z76" s="66"/>
+      <c r="AA76" s="66"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B78" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C78" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="G75" s="63" t="s">
+      <c r="G78" s="63" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K77" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H79" s="18" t="s">
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="18" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="J80" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="B80" s="62" t="s">
+      <c r="B83" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="C83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B84" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G84" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71" t="s">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="B85" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="J84" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K84" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="J85" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K85" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H86" s="73" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>31</v>
@@ -5429,113 +5581,113 @@
       <c r="H87" s="73" t="s">
         <v>263</v>
       </c>
+      <c r="J87" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B88" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" s="72"/>
+      <c r="A88" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="71" t="s">
-        <v>251</v>
+      <c r="A89" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>76</v>
+        <v>248</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="73" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>31</v>
       </c>
+      <c r="H90" s="73" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K91" s="24" t="s">
-        <v>234</v>
-      </c>
+      <c r="A91" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="72"/>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>255</v>
+      <c r="A92" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="J92" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K92" s="24" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>248</v>
+        <v>252</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="73" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>31</v>
@@ -5543,512 +5695,748 @@
       <c r="H94" s="73" t="s">
         <v>264</v>
       </c>
+      <c r="J94" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B95" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" s="72"/>
+      <c r="A95" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>258</v>
+      <c r="A96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>76</v>
+        <v>248</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="73" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>31</v>
       </c>
+      <c r="H97" s="73" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="J98" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K98" s="24" t="s">
-        <v>234</v>
-      </c>
+      <c r="A98" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="72"/>
     </row>
     <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="71" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B99" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="24" t="s">
+      <c r="C99" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K101" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B102" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C100" s="12"/>
-    </row>
-    <row r="101" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="54" t="s">
+      <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B104" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C104" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="G101" s="63" t="s">
+      <c r="D104" s="24"/>
+      <c r="G104" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
+    <row r="105" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B105" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C105" s="56" t="s">
         <v>176</v>
-      </c>
-      <c r="D102" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="B104" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="D104" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" s="55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>199</v>
       </c>
       <c r="D105" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H105" s="55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>208</v>
+      <c r="H105" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>179</v>
       </c>
       <c r="D106" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H106" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="55" t="s">
         <v>209</v>
-      </c>
-      <c r="J106" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="K106" s="54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="G107" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H107" s="55"/>
-      <c r="N107" s="54" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J109" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="K109" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B110" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="55"/>
+      <c r="N110" s="54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C111" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G108" s="54" t="s">
+      <c r="G111" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H108" s="55"/>
-      <c r="N108" s="54" t="s">
+      <c r="H111" s="55"/>
+      <c r="N111" s="54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="54" t="s">
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
-    </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="82" t="s">
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="82" t="s">
+      <c r="B113" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="C110" s="83" t="s">
+      <c r="C113" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G110" s="82" t="s">
+      <c r="G113" s="82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C111" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="C112" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C114" s="85" t="s">
-        <v>295</v>
+        <v>288</v>
+      </c>
+      <c r="C114" s="70" t="s">
+        <v>289</v>
       </c>
       <c r="D114" s="31"/>
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
       <c r="G114" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="86" t="s">
-        <v>297</v>
+      <c r="B115" s="84" t="s">
+        <v>291</v>
       </c>
       <c r="C115" s="85" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D115" s="31"/>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
-      <c r="G115" s="86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C116" s="85" t="s">
-        <v>301</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C116" s="85"/>
       <c r="D116" s="31"/>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
-      <c r="G116" s="87" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="C117" s="85" t="s">
+        <v>295</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
       <c r="G117" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B118" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>307</v>
+      <c r="B118" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="85" t="s">
+        <v>320</v>
       </c>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
-      <c r="G118" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>309</v>
+        <v>302</v>
+      </c>
+      <c r="C119" s="85" t="s">
+        <v>303</v>
       </c>
       <c r="D119" s="31"/>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
-      <c r="G119" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="D120" s="31"/>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
       <c r="G121" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
       <c r="G122" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
       <c r="F123" s="31"/>
       <c r="G123" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>319</v>
+        <v>308</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
       <c r="G124" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
       <c r="F125" s="31"/>
       <c r="G125" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
+        <v>300</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
       <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
+      <c r="G126" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H134" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J51:J68 D70:E73">
+    <dataValidation type="list" allowBlank="1" sqref="J51:J71 D73:E76">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12348,7 +12736,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-06 13-30</v>
+        <v>2021-01-07 9-23</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="366">
   <si>
     <t>list_name</t>
   </si>
@@ -1067,6 +1067,69 @@
   </si>
   <si>
     <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>thermometer</t>
+  </si>
+  <si>
+    <t>Do you have a thermometer?</t>
+  </si>
+  <si>
+    <t>selected${fever} ='yes'</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>What is the {contact_surname} temperature?</t>
+  </si>
+  <si>
+    <t>selected${thermometer} ='yes'</t>
+  </si>
+  <si>
+    <t>breathing_rate</t>
+  </si>
+  <si>
+    <t>What is the {contact_surname} breathing rate per minute?</t>
+  </si>
+  <si>
+    <t>selected${breathing} = 'yes' and selected${pulse_oximeter} = 'no'</t>
+  </si>
+  <si>
+    <t>select_one result</t>
+  </si>
+  <si>
+    <t>test_result</t>
+  </si>
+  <si>
+    <t>What was the test result?</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>COVID 19 Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>COVID 19 Negative</t>
+  </si>
+  <si>
+    <t>inconclusive</t>
+  </si>
+  <si>
+    <t>Result Inconclusive</t>
+  </si>
+  <si>
+    <t>unkwown</t>
+  </si>
+  <si>
+    <t>Result Unknown/Not yet available</t>
   </si>
 </sst>
 </file>
@@ -1786,13 +1849,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN136"/>
+  <dimension ref="A1:AN139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4478,14 +4541,24 @@
       <c r="AN55" s="16"/>
     </row>
     <row r="56" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="H56" s="18" t="s">
+        <v>353</v>
+      </c>
       <c r="I56" s="18"/>
       <c r="J56" s="88"/>
       <c r="K56" s="16"/>
@@ -4674,10 +4747,10 @@
         <v>127</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>138</v>
+        <v>345</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>31</v>
@@ -4685,7 +4758,9 @@
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="18" t="s">
+        <v>347</v>
+      </c>
       <c r="I60" s="18"/>
       <c r="J60" s="88"/>
       <c r="K60" s="16"/>
@@ -4721,13 +4796,13 @@
     </row>
     <row r="61" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>127</v>
+        <v>338</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>140</v>
+        <v>348</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>139</v>
+        <v>349</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>31</v>
@@ -4735,7 +4810,9 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="I61" s="18"/>
       <c r="J61" s="88"/>
       <c r="K61" s="16"/>
@@ -4773,11 +4850,11 @@
       <c r="A62" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>152</v>
+      <c r="B62" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>31</v>
@@ -4823,11 +4900,11 @@
       <c r="A63" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>153</v>
+      <c r="B63" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>31</v>
@@ -4874,10 +4951,10 @@
         <v>127</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>266</v>
+        <v>152</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>31</v>
@@ -4923,11 +5000,11 @@
       <c r="A65" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>145</v>
+      <c r="B65" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>31</v>
@@ -4974,10 +5051,10 @@
         <v>127</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>31</v>
@@ -5024,10 +5101,10 @@
         <v>127</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>31</v>
@@ -5074,10 +5151,10 @@
         <v>127</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>31</v>
@@ -5124,10 +5201,10 @@
         <v>127</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>31</v>
@@ -5173,11 +5250,11 @@
       <c r="A70" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>142</v>
+      <c r="B70" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>31</v>
@@ -5223,11 +5300,11 @@
       <c r="A71" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>162</v>
+      <c r="B71" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>31</v>
@@ -5269,150 +5346,172 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="16"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+    <row r="72" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+    </row>
+    <row r="73" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="16"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="16"/>
+      <c r="AM73" s="16"/>
+      <c r="AN73" s="16"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:40" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+    <row r="75" spans="1:40" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B75" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C75" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="64"/>
-      <c r="U73" s="64"/>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-    </row>
-    <row r="74" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="64"/>
+      <c r="T75" s="64"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="64"/>
+    </row>
+    <row r="76" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B76" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C76" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D76" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
-      <c r="W74" s="66"/>
-      <c r="X74" s="66"/>
-      <c r="Y74" s="66"/>
-      <c r="Z74" s="66"/>
-      <c r="AA74" s="66"/>
-    </row>
-    <row r="75" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I75" s="67"/>
-      <c r="J75" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K75" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="66"/>
-      <c r="T75" s="66"/>
-      <c r="U75" s="66"/>
-      <c r="V75" s="66"/>
-      <c r="W75" s="66"/>
-      <c r="X75" s="66"/>
-      <c r="Y75" s="66"/>
-      <c r="Z75" s="66"/>
-      <c r="AA75" s="66"/>
-    </row>
-    <row r="76" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
       <c r="E76" s="18"/>
       <c r="G76" s="18"/>
-      <c r="H76" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I76" s="67"/>
-      <c r="J76" s="81"/>
+      <c r="H76" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
-      <c r="N76" s="18" t="s">
-        <v>284</v>
-      </c>
+      <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
       <c r="Q76" s="18"/>
@@ -5427,88 +5526,126 @@
       <c r="Z76" s="66"/>
       <c r="AA76" s="66"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I77" s="67"/>
+      <c r="J77" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="66"/>
+      <c r="T77" s="66"/>
+      <c r="U77" s="66"/>
+      <c r="V77" s="66"/>
+      <c r="W77" s="66"/>
+      <c r="X77" s="66"/>
+      <c r="Y77" s="66"/>
+      <c r="Z77" s="66"/>
+      <c r="AA77" s="66"/>
+    </row>
+    <row r="78" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" s="67"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="66"/>
+      <c r="V78" s="66"/>
+      <c r="W78" s="66"/>
+      <c r="X78" s="66"/>
+      <c r="Y78" s="66"/>
+      <c r="Z78" s="66"/>
+      <c r="AA78" s="66"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B80" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C80" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="G80" s="63" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K80" s="18" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="18" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>31</v>
@@ -5516,127 +5653,121 @@
       <c r="H82" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="J82" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B86" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="C86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G87" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71" t="s">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="B88" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="J87" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K87" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="J88" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H89" s="73" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>31</v>
@@ -5644,113 +5775,113 @@
       <c r="H90" s="73" t="s">
         <v>263</v>
       </c>
+      <c r="J90" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B91" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="C91" s="72"/>
+      <c r="A91" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" s="71" t="s">
-        <v>251</v>
+      <c r="A92" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>76</v>
+        <v>248</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="73" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>31</v>
       </c>
+      <c r="H93" s="73" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="J94" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>234</v>
-      </c>
+      <c r="A94" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="72"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>255</v>
+      <c r="A95" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="J95" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K95" s="24" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>248</v>
+        <v>252</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H96" s="73" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>31</v>
@@ -5758,420 +5889,423 @@
       <c r="H97" s="73" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B98" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="C98" s="72"/>
-    </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" s="71" t="s">
-        <v>258</v>
+      <c r="J97" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="J101" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K101" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" s="72"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="71" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B102" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="24" t="s">
+      <c r="C102" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K104" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B105" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="54" t="s">
+      <c r="C106" s="12"/>
+    </row>
+    <row r="107" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B107" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C107" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="D104" s="24"/>
-      <c r="G104" s="63" t="s">
+      <c r="D107" s="24"/>
+      <c r="G107" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
+    <row r="108" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B108" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C108" s="56" t="s">
         <v>176</v>
-      </c>
-      <c r="D105" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H105" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B106" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H106" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="B107" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="D107" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" s="55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>199</v>
       </c>
       <c r="D108" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H108" s="55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>208</v>
+      <c r="H108" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="57" t="s">
+        <v>179</v>
       </c>
       <c r="D109" s="54" t="s">
         <v>31</v>
       </c>
       <c r="H109" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="J109" s="54" t="s">
+    </row>
+    <row r="111" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J112" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="K109" s="54" t="s">
+      <c r="K112" s="54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+    <row r="113" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B113" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C113" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="G110" s="54" t="s">
+      <c r="G113" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H110" s="55"/>
-      <c r="N110" s="54" t="s">
+      <c r="H113" s="55"/>
+      <c r="N113" s="54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+    <row r="114" spans="1:14" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B114" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C114" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G111" s="54" t="s">
+      <c r="G114" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H111" s="55"/>
-      <c r="N111" s="54" t="s">
+      <c r="H114" s="55"/>
+      <c r="N114" s="54" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="54" t="s">
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="54"/>
-      <c r="C112" s="54"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="82" t="s">
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+    </row>
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="82" t="s">
+      <c r="B116" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="83" t="s">
+      <c r="C116" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G113" s="82" t="s">
+      <c r="G116" s="82" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C114" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="B115" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="C115" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="C116" s="85"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="C117" s="85" t="s">
-        <v>295</v>
+        <v>288</v>
+      </c>
+      <c r="C117" s="70" t="s">
+        <v>289</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
       <c r="G117" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B118" s="86" t="s">
-        <v>297</v>
+      <c r="B118" s="84" t="s">
+        <v>291</v>
       </c>
       <c r="C118" s="85" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
-      <c r="G118" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="H118" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" s="85" t="s">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C119" s="85"/>
       <c r="D119" s="31"/>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
-      <c r="G119" s="87" t="s">
-        <v>299</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>132</v>
+        <v>301</v>
+      </c>
+      <c r="C120" s="85" t="s">
+        <v>295</v>
       </c>
       <c r="D120" s="31"/>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="H120" s="24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>133</v>
+      <c r="B121" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="85" t="s">
+        <v>320</v>
       </c>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
-      <c r="G121" s="24" t="s">
-        <v>300</v>
+      <c r="G121" s="86" t="s">
+        <v>298</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>134</v>
+        <v>302</v>
+      </c>
+      <c r="C122" s="85" t="s">
+        <v>303</v>
       </c>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
-      <c r="G122" s="24" t="s">
-        <v>300</v>
+      <c r="G122" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
@@ -6180,18 +6314,18 @@
         <v>300</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
@@ -6200,18 +6334,18 @@
         <v>300</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
@@ -6220,18 +6354,18 @@
         <v>300</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
@@ -6240,18 +6374,18 @@
         <v>300</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>144</v>
+        <v>308</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
@@ -6260,18 +6394,18 @@
         <v>300</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
@@ -6280,7 +6414,7 @@
         <v>300</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,10 +6422,10 @@
         <v>107</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
@@ -6300,7 +6434,7 @@
         <v>300</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6308,10 +6442,10 @@
         <v>107</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>156</v>
+        <v>311</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
@@ -6320,7 +6454,7 @@
         <v>300</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,10 +6462,10 @@
         <v>107</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
@@ -6340,7 +6474,7 @@
         <v>300</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,10 +6482,10 @@
         <v>107</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
@@ -6360,7 +6494,7 @@
         <v>300</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,10 +6502,10 @@
         <v>107</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
@@ -6380,7 +6514,7 @@
         <v>300</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6388,10 +6522,10 @@
         <v>107</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
@@ -6400,7 +6534,7 @@
         <v>300</v>
       </c>
       <c r="H134" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,10 +6542,10 @@
         <v>107</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
@@ -6420,23 +6554,83 @@
         <v>300</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="A136" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
       <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
+      <c r="G136" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J51:J71 D73:E76">
+    <dataValidation type="list" allowBlank="1" sqref="J51:J73 D75:E78">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6449,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6819,27 +7013,51 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12736,7 +12954,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-07 9-23</v>
+        <v>2021-01-11 13-45</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms_screening.xlsx
+++ b/forms/app/covid_symptoms_screening.xlsx
@@ -16,7 +16,7 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1852,10 +1852,10 @@
   <dimension ref="A1:AN139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-11 13-45</v>
+        <v>2021-01-16 15-50</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
